--- a/pred_ohlcv/54_21/2019-11-01 ENJ ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-01 ENJ ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>575580.4469000001</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -496,7 +496,7 @@
         <v>594962.4924000001</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>594942.4924000001</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>594942.4924000001</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -886,7 +886,7 @@
         <v>600040.4762000002</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>608142.7825000002</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>607276.9498000002</v>
       </c>
       <c r="H37">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>606366.9498000002</v>
       </c>
       <c r="H38">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>606366.9498000002</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>606366.9498000002</v>
       </c>
       <c r="H40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>606366.9498000002</v>
       </c>
       <c r="H41">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>650188.6613000002</v>
       </c>
       <c r="H42">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>649138.6613000002</v>
       </c>
       <c r="H43">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>649138.6613000002</v>
       </c>
       <c r="H44">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>649138.6613000002</v>
       </c>
       <c r="H45">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>670736.5601000001</v>
       </c>
       <c r="H46">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>651544.6925000001</v>
       </c>
       <c r="H47">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>640102.2316000002</v>
       </c>
       <c r="H48">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>601630.1737000002</v>
       </c>
       <c r="H49">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>601830.1737000002</v>
       </c>
       <c r="H50">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>601830.1737000002</v>
       </c>
       <c r="H51">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>692217.3805000001</v>
       </c>
       <c r="H64">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>695680.4089</v>
       </c>
       <c r="H65">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>695680.4089</v>
       </c>
       <c r="H66">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>717788.3628</v>
       </c>
       <c r="H67">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>749729.5431</v>
       </c>
       <c r="H68">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>770656.7447</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>741178.098</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>726191.0851</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>717399.6654000001</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>727664.1945000001</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>721626.3090000001</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>721626.3090000001</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>750687.7427000002</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>750687.7427000002</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>743509.7870000001</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>730466.0713000002</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>722966.0713000002</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>696644.5309000001</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>696644.5309000001</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>696644.5309000001</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>691691.6815000002</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>708009.2736000002</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>708009.2736000002</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>713279.2736000002</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>713279.2736000002</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>713279.2736000002</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>704279.2736000002</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>708656.7053000001</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>730098.1767000002</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>742098.1767000002</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>763340.3896000002</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>777903.3271000002</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>851310.6000000002</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>914604.8574000002</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>993675.8193000002</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>986364.8584000003</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>977136.6333000002</v>
       </c>
       <c r="H102">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>977136.6333000002</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>973034.0540000002</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>973034.0540000002</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>973034.0540000002</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>954048.8185000003</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>926122.7379000003</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>941192.3331000003</v>
       </c>
       <c r="H109">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>941202.3331000003</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>899182.3331000003</v>
       </c>
       <c r="H111">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>881182.3331000003</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>882355.2267000002</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>1059937.657869347</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>1082846.797869347</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>1128615.101169347</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>1118410.988869347</v>
       </c>
       <c r="H121">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>1108435.988869347</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>1115316.735469347</v>
       </c>
       <c r="H123">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>1115316.735469347</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>1112350.657269347</v>
       </c>
       <c r="H125">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>1100658.169769347</v>
       </c>
       <c r="H126">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>1113624.248069347</v>
       </c>
       <c r="H127">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>1115624.248069347</v>
       </c>
       <c r="H128">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>1115624.248069347</v>
       </c>
       <c r="H129">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>1110998.357569347</v>
       </c>
       <c r="H130">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>1115308.357569347</v>
       </c>
       <c r="H131">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>1103736.260369347</v>
       </c>
       <c r="H132">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>1103736.260369347</v>
       </c>
       <c r="H133">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>1096916.260369347</v>
       </c>
       <c r="H134">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>1095468.231969347</v>
       </c>
       <c r="H135">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>1105580.459869347</v>
       </c>
       <c r="H136">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>1105580.459769347</v>
       </c>
       <c r="H137">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>1098250.616869347</v>
       </c>
       <c r="H138">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>1185839.793759307</v>
       </c>
       <c r="H200">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:8">

--- a/pred_ohlcv/54_21/2019-11-01 ENJ ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-01 ENJ ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>575580.4469000001</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>575475.0803000001</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>594962.4924000001</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>594942.4924000001</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>594942.4924000001</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>587745.8097000001</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>590136.8097000001</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -886,7 +886,7 @@
         <v>600040.4762000002</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>571279.8976000001</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>649138.6613000002</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>649138.6613000002</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>593063.5089000001</v>
       </c>
       <c r="H52">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>628105.8275000001</v>
       </c>
       <c r="H53">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>626235.8275000001</v>
       </c>
       <c r="H54">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>612413.0088000002</v>
       </c>
       <c r="H55">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>599193.8854000001</v>
       </c>
       <c r="H56">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>608720.5832000001</v>
       </c>
       <c r="H57">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>602720.5832000001</v>
       </c>
       <c r="H58">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>616254.7302000001</v>
       </c>
       <c r="H59">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>616254.7302000001</v>
       </c>
       <c r="H60">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>607985.5120000001</v>
       </c>
       <c r="H61">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>639905.9955000001</v>
       </c>
       <c r="H62">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>681177.9762</v>
       </c>
       <c r="H63">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>770656.7447</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>741178.098</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>726191.0851</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>717399.6654000001</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>727664.1945000001</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>721626.3090000001</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>721626.3090000001</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>750687.7427000002</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>750687.7427000002</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>743509.7870000001</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>730466.0713000002</v>
       </c>
       <c r="H79">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>722966.0713000002</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>696644.5309000001</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>696644.5309000001</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>696644.5309000001</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>691691.6815000002</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>708009.2736000002</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>708009.2736000002</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>713279.2736000002</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>713279.2736000002</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>713279.2736000002</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>704279.2736000002</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>708656.7053000001</v>
       </c>
       <c r="H91">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>730098.1767000002</v>
       </c>
       <c r="H92">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>742098.1767000002</v>
       </c>
       <c r="H93">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>763340.3896000002</v>
       </c>
       <c r="H94">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>777903.3271000002</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>851310.6000000002</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>914604.8574000002</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>993675.8193000002</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>986364.8584000003</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>977136.6333000002</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>1059937.657869347</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>1082846.797869347</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>1128615.101169347</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>1118410.988869347</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>1108435.988869347</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>1115316.735469347</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>1115316.735469347</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>1112350.657269347</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>1100658.169769347</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>1113624.248069347</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>1115624.248069347</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>1115624.248069347</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>1110998.357569347</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>1115308.357569347</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>1103736.260369347</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>1096916.260369347</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:8">
